--- a/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E306D-AFD4-4549-B2CF-526A11AEE811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4834C226-EE38-463E-8D8C-ED48D88B3DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -2653,8 +2653,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K3"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3539,7 +3539,7 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4834C226-EE38-463E-8D8C-ED48D88B3DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754CB85-F987-4B29-BD7B-D702C9490F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -1301,6 +1301,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1310,6 +1314,15 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1319,15 +1332,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,14 +1368,47 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1376,14 +1422,20 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1391,27 +1443,78 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,109 +1530,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2220,10 +2220,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2527,12 +2523,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
@@ -2653,7 +2649,7 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="138" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -2665,73 +2661,73 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="Q6" s="37" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="Q6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
       <c r="T8" s="31">
         <v>5</v>
       </c>
@@ -2740,19 +2736,19 @@
       <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="I9" s="35"/>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
       <c r="T9" s="31">
         <v>5</v>
       </c>
@@ -2761,27 +2757,27 @@
       <c r="B10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="Q10" s="55" t="s">
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+      <c r="Q10" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="55" t="s">
+      <c r="R10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="55"/>
+      <c r="S10" s="43"/>
       <c r="T10" s="31">
         <v>5</v>
       </c>
@@ -2790,205 +2786,200 @@
       <c r="B11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
-      <c r="Q13" s="37" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
+      <c r="Q13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
       <c r="Q15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="56" t="s">
+      <c r="R15" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
       <c r="Q16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="57" t="s">
+      <c r="R16" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
       <c r="Q17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R17" s="57" t="s">
+      <c r="R17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
       <c r="Q18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="41"/>
-      <c r="T18" s="42"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
       <c r="Q19" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="40" t="s">
+      <c r="R19" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="42"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="47"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
       <c r="Q20" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="51"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="51"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="54"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C10:E10"/>
@@ -3004,6 +2995,11 @@
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="D1:I1"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3019,8 +3015,8 @@
   </sheetPr>
   <dimension ref="B1:AA16"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,162 +3046,162 @@
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
     </row>
     <row r="7" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="104" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="62" t="s">
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="61" t="s">
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
     </row>
     <row r="8" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="102" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="102" t="s">
+      <c r="G8" s="64"/>
+      <c r="H8" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="103"/>
-      <c r="J8" s="102" t="s">
+      <c r="I8" s="64"/>
+      <c r="J8" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="102" t="s">
+      <c r="K8" s="64"/>
+      <c r="L8" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="98" t="s">
+      <c r="M8" s="64"/>
+      <c r="N8" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="98" t="s">
+      <c r="O8" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="98" t="s">
+      <c r="Q8" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="98" t="s">
+      <c r="R8" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="S8" s="100">
+      <c r="S8" s="70">
         <v>0</v>
       </c>
-      <c r="T8" s="100">
+      <c r="T8" s="70">
         <v>1</v>
       </c>
-      <c r="U8" s="100">
+      <c r="U8" s="70">
         <v>2</v>
       </c>
-      <c r="V8" s="100" t="s">
+      <c r="V8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="100" t="s">
+      <c r="W8" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="X8" s="100" t="s">
+      <c r="X8" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="100" t="s">
+      <c r="Y8" s="70" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="58"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="106"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="11" t="s">
         <v>42</v>
       </c>
@@ -3230,18 +3226,18 @@
       <c r="M9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="2:27" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
@@ -3323,7 +3319,9 @@
       </c>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="W11" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
     </row>
@@ -3369,7 +3367,9 @@
         <v>92</v>
       </c>
       <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="W12" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
@@ -3498,19 +3498,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3526,6 +3513,19 @@
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="F7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3539,7 +3539,7 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
@@ -3560,47 +3560,47 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="69" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="68"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="2" t="s">
         <v>106</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="B6" s="19">
         <v>9</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="107" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3637,18 +3637,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
         <v>10</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="37" t="s">
         <v>111</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -3658,18 +3658,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <v>11</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="37" t="s">
         <v>111</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -3679,18 +3679,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <v>12</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="37" t="s">
         <v>111</v>
       </c>
       <c r="G9" s="19" t="s">
@@ -3700,18 +3700,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="37" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -3741,83 +3741,83 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="77" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="65" t="s">
+      <c r="G13" s="113"/>
+      <c r="H13" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="92" t="s">
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="93"/>
+      <c r="N13" s="91"/>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="93" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="83" t="s">
+      <c r="J14" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="88" t="s">
+      <c r="L14" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="90" t="s">
+      <c r="M14" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="73" t="s">
+      <c r="N14" s="100" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="94"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="80"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="97"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="24">
@@ -3830,7 +3830,7 @@
       <c r="D16" s="22">
         <v>0</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="38">
         <v>1</v>
       </c>
       <c r="F16" s="23">
@@ -3863,6 +3863,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="H13:L13"/>
@@ -3879,15 +3888,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3897,21 +3897,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e00392fbb7f49de63e89755c965b762">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37d4e1d93698397f16b7bbb6f83014a7" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -4079,24 +4064,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845501DA-8B32-4FE5-8083-FBCE9B17F25B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4112,4 +4095,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>